--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547EC2CC-8324-4D45-9994-2B5FFE6A4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8A8A5-744A-1148-A27F-F5F8FDA24B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>שם מלא</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>muhamda</t>
+  </si>
+  <si>
+    <t>שעת_התחלה</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +517,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -532,6 +537,9 @@
       <c r="E2" s="9">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -549,6 +557,9 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -566,6 +577,9 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -583,6 +597,9 @@
       <c r="E5" s="10">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -600,6 +617,9 @@
       <c r="E6" s="9">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -617,6 +637,9 @@
       <c r="E7" s="11">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -634,6 +657,9 @@
       <c r="E8" s="11">
         <v>7</v>
       </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -650,6 +676,9 @@
       </c>
       <c r="E9" s="11">
         <v>10</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8A8A5-744A-1148-A27F-F5F8FDA24B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0FF68-5E7D-4364-8557-C4450EB542B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="2880" yWindow="2090" windowWidth="14400" windowHeight="7370" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>שם מלא</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>שעת_התחלה</t>
+  </si>
+  <si>
+    <t>שעת_סיום</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +175,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +526,11 @@
       <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -540,8 +549,11 @@
       <c r="F2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -560,8 +572,11 @@
       <c r="F3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -580,8 +595,11 @@
       <c r="F4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -600,8 +618,11 @@
       <c r="F5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -620,8 +641,11 @@
       <c r="F6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -640,8 +664,11 @@
       <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -660,8 +687,11 @@
       <c r="F8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -680,29 +710,32 @@
       <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0FF68-5E7D-4364-8557-C4450EB542B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC76C3-1666-D645-9EC5-05C646BE9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2090" windowWidth="14400" windowHeight="7370" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>שם מלא</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>שעת_סיום</t>
+  </si>
+  <si>
+    <t>zamane</t>
+  </si>
+  <si>
+    <t>yehudaa</t>
+  </si>
+  <si>
+    <t>meird</t>
+  </si>
+  <si>
+    <t>moshet</t>
+  </si>
+  <si>
+    <t>oshrem</t>
+  </si>
+  <si>
+    <t>gashawa</t>
+  </si>
+  <si>
+    <t>fekadu</t>
+  </si>
+  <si>
+    <t>hasana</t>
   </si>
 </sst>
 </file>
@@ -112,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,17 +159,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -155,10 +168,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,8 +186,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,227 +541,351 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC76C3-1666-D645-9EC5-05C646BE9AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000B985-0FDB-AC48-B71A-4C1E8D92E7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>שם מלא</t>
   </si>
@@ -48,30 +48,6 @@
     <t>רענון</t>
   </si>
   <si>
-    <t>mhamada</t>
-  </si>
-  <si>
-    <t>idanb</t>
-  </si>
-  <si>
-    <t>abdallah</t>
-  </si>
-  <si>
-    <t>aviw</t>
-  </si>
-  <si>
-    <t>nadavm</t>
-  </si>
-  <si>
-    <t>oshri</t>
-  </si>
-  <si>
-    <t>yonib</t>
-  </si>
-  <si>
-    <t>muhamda</t>
-  </si>
-  <si>
     <t>שעת_התחלה</t>
   </si>
   <si>
@@ -84,29 +60,23 @@
     <t>yehudaa</t>
   </si>
   <si>
-    <t>meird</t>
-  </si>
-  <si>
-    <t>moshet</t>
-  </si>
-  <si>
-    <t>oshrem</t>
-  </si>
-  <si>
-    <t>gashawa</t>
-  </si>
-  <si>
     <t>fekadu</t>
   </si>
   <si>
     <t>hasana</t>
+  </si>
+  <si>
+    <t>rami</t>
+  </si>
+  <si>
+    <t>mangasha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,13 +90,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,43 +122,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,351 +509,153 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10">
-        <v>23</v>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10">
-        <v>23</v>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10">
-        <v>23</v>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10">
-        <v>12</v>
-      </c>
-      <c r="G8" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-      <c r="F9" s="10">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5000B985-0FDB-AC48-B71A-4C1E8D92E7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052203F-A25A-EE49-B175-6FDFA3EFC960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>שם מלא</t>
   </si>
@@ -63,13 +63,7 @@
     <t>fekadu</t>
   </si>
   <si>
-    <t>hasana</t>
-  </si>
-  <si>
-    <t>rami</t>
-  </si>
-  <si>
-    <t>mangasha</t>
+    <t>melaket</t>
   </si>
 </sst>
 </file>
@@ -137,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,16 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +505,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -543,7 +528,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -566,7 +551,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -593,67 +578,21 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" s="6">
+        <v>10</v>
       </c>
       <c r="F5" s="6">
         <v>7</v>
       </c>
       <c r="G5" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6">
         <v>18</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052203F-A25A-EE49-B175-6FDFA3EFC960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781FDE85-391B-464E-8BAB-12D06364DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>שם מלא</t>
   </si>
@@ -64,13 +64,31 @@
   </si>
   <si>
     <t>melaket</t>
+  </si>
+  <si>
+    <t>mhamada</t>
+  </si>
+  <si>
+    <t>oshrem</t>
+  </si>
+  <si>
+    <t>yonib</t>
+  </si>
+  <si>
+    <t>moshet</t>
+  </si>
+  <si>
+    <t>meird</t>
+  </si>
+  <si>
+    <t>hasana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +99,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -131,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +177,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,6 +633,144 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781FDE85-391B-464E-8BAB-12D06364DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1910D2-6950-4A1F-A727-D794B0EBDCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,9 +186,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,17 +505,17 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -564,7 +561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -587,7 +584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -610,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -633,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -647,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>12</v>
@@ -656,7 +653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -679,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -702,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -725,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -748,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -764,10 +761,10 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>12</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>23</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1910D2-6950-4A1F-A727-D794B0EBDCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41747A4-E696-1046-984F-49DBAEFE6DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>mhamada</t>
   </si>
   <si>
-    <t>oshrem</t>
-  </si>
-  <si>
     <t>yonib</t>
   </si>
   <si>
@@ -81,7 +78,10 @@
     <t>meird</t>
   </si>
   <si>
-    <t>hasana</t>
+    <t>oshri</t>
+  </si>
+  <si>
+    <t>osherm</t>
   </si>
 </sst>
 </file>
@@ -505,17 +505,17 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -584,7 +584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -653,9 +653,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -676,9 +676,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
@@ -699,9 +699,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -722,9 +722,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
@@ -745,26 +745,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>12</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>23</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41747A4-E696-1046-984F-49DBAEFE6DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A19AD1-4EA9-2A4D-A492-54E1A1915869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>שם מלא</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>melaket</t>
-  </si>
-  <si>
-    <t>mhamada</t>
   </si>
   <si>
     <t>yonib</t>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +629,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -641,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
         <v>12</v>
@@ -655,19 +652,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>12</v>
@@ -680,16 +677,16 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="6">
@@ -704,16 +701,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6">
         <v>12</v>
@@ -726,45 +723,22 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8</v>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>12</v>
       </c>
       <c r="G10" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6">
         <v>23</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A19AD1-4EA9-2A4D-A492-54E1A1915869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B2B39-350E-4C78-809B-50441BC49441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>שם מלא</t>
   </si>
@@ -48,12 +48,6 @@
     <t>רענון</t>
   </si>
   <si>
-    <t>שעת_התחלה</t>
-  </si>
-  <si>
-    <t>שעת_סיום</t>
-  </si>
-  <si>
     <t>zamane</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>osherm</t>
+  </si>
+  <si>
+    <t>גק</t>
   </si>
 </sst>
 </file>
@@ -499,20 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,15 +526,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -551,16 +545,13 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -574,16 +565,13 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -598,15 +586,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -621,15 +606,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -643,16 +625,13 @@
       <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -666,16 +645,13 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -689,16 +665,13 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -712,16 +685,13 @@
       <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>2</v>
@@ -735,11 +705,8 @@
       <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6">
-        <v>23</v>
+      <c r="F10" s="10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B2B39-350E-4C78-809B-50441BC49441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8F6A6-E25E-6341-A324-E5996C731B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>שם מלא</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>גק</t>
+  </si>
+  <si>
+    <t>abdallah</t>
+  </si>
+  <si>
+    <t>nadavm</t>
+  </si>
+  <si>
+    <t>aviw</t>
+  </si>
+  <si>
+    <t>muhamda</t>
+  </si>
+  <si>
+    <t>idanb</t>
+  </si>
+  <si>
+    <t>mhamada</t>
+  </si>
+  <si>
+    <t>gashawa</t>
+  </si>
+  <si>
+    <t>hasana</t>
+  </si>
+  <si>
+    <t>rami</t>
   </si>
 </sst>
 </file>
@@ -150,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +207,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,20 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -549,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -569,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -589,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -609,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -629,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -649,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -669,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -689,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -707,6 +740,206 @@
       </c>
       <c r="F10" s="10">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8F6A6-E25E-6341-A324-E5996C731B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD2B64-C4F7-45CB-BD37-3A016215974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +210,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,17 +529,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -582,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -602,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -622,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -642,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -662,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -682,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -699,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -742,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -762,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -802,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -822,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -842,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -862,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -922,8 +919,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\Mendelson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD2B64-C4F7-45CB-BD37-3A016215974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B0C0B-9FAF-8A47-B6AF-7AA1700C8B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>שם מלא</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>rami</t>
+  </si>
+  <si>
+    <t>ronil</t>
+  </si>
+  <si>
+    <t>babi</t>
+  </si>
+  <si>
+    <t>mhamadh</t>
   </si>
 </sst>
 </file>
@@ -209,8 +218,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C22" sqref="C22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
     <col min="5" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -570,16 +579,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -590,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -610,16 +619,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -627,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -639,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -647,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -659,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -670,16 +679,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -690,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -707,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -719,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -730,16 +739,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -750,16 +759,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -770,16 +779,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -790,16 +799,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -810,16 +819,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -830,16 +839,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -847,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -867,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -890,16 +899,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -910,16 +919,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -927,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>8</v>
@@ -936,6 +945,66 @@
         <v>8</v>
       </c>
       <c r="F20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>9</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
         <v>0</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B0C0B-9FAF-8A47-B6AF-7AA1700C8B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DFD4E7-4550-6A48-A51C-BAC7533D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>8</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DFD4E7-4550-6A48-A51C-BAC7533D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C17BF-60A3-9349-BB13-E1BE12D8E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,16 +696,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C17BF-60A3-9349-BB13-E1BE12D8E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33570C17-554A-F248-93A6-B6C01E68C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>שם מלא</t>
   </si>
@@ -51,27 +51,18 @@
     <t>zamane</t>
   </si>
   <si>
-    <t>yehudaa</t>
-  </si>
-  <si>
     <t>fekadu</t>
   </si>
   <si>
     <t>melaket</t>
   </si>
   <si>
-    <t>yonib</t>
-  </si>
-  <si>
     <t>moshet</t>
   </si>
   <si>
     <t>meird</t>
   </si>
   <si>
-    <t>oshri</t>
-  </si>
-  <si>
     <t>osherm</t>
   </si>
   <si>
@@ -81,15 +72,6 @@
     <t>abdallah</t>
   </si>
   <si>
-    <t>nadavm</t>
-  </si>
-  <si>
-    <t>aviw</t>
-  </si>
-  <si>
-    <t>muhamda</t>
-  </si>
-  <si>
     <t>idanb</t>
   </si>
   <si>
@@ -105,20 +87,29 @@
     <t>rami</t>
   </si>
   <si>
-    <t>ronil</t>
-  </si>
-  <si>
-    <t>babi</t>
-  </si>
-  <si>
     <t>mhamadh</t>
+  </si>
+  <si>
+    <t>melaket2</t>
+  </si>
+  <si>
+    <t>majda</t>
+  </si>
+  <si>
+    <t>moshe</t>
+  </si>
+  <si>
+    <t>meirg</t>
+  </si>
+  <si>
+    <t>shlomi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,7 +124,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -186,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,17 +204,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +534,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,448 +561,393 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>7</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33570C17-554A-F248-93A6-B6C01E68C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C97EA3-28C0-9842-BF1E-72549B4CB94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C97EA3-28C0-9842-BF1E-72549B4CB94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F2816-D562-174D-B9A7-0D424ACC1177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>שם מלא</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>shlomi</t>
+  </si>
+  <si>
+    <t>mangasha</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,12 +928,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F2816-D562-174D-B9A7-0D424ACC1177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C6FA3C-DE8C-5544-8D9D-C79037BF947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>שם מלא</t>
   </si>
@@ -105,7 +105,7 @@
     <t>shlomi</t>
   </si>
   <si>
-    <t>mangasha</t>
+    <t>kabala</t>
   </si>
 </sst>
 </file>
@@ -184,12 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,16 +531,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="2" customWidth="1"/>
     <col min="5" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,407 +557,403 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>7</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
         <v>9</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>10</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
         <v>7</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>7</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C6FA3C-DE8C-5544-8D9D-C79037BF947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E2AC3-46F2-FF44-9EA8-99422D743304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>שם מלא</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>kabala</t>
+  </si>
+  <si>
+    <t>roei</t>
+  </si>
+  <si>
+    <t>mordechai</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,9 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +219,10 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +541,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,19 +572,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="3">
@@ -585,19 +592,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -605,19 +612,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="3">
@@ -625,19 +632,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="3">
@@ -645,19 +652,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="3">
@@ -665,259 +672,259 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>9</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>7</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="3">
@@ -928,32 +935,61 @@
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E2AC3-46F2-FF44-9EA8-99422D743304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B940443-153E-6549-9971-D51B1CD3A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,10 +916,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B940443-153E-6549-9971-D51B1CD3A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2953E61F-C6F6-E143-833E-845ED76563E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>שם מלא</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>mordechai</t>
+  </si>
+  <si>
+    <t>basher</t>
+  </si>
+  <si>
+    <t>muhamadab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +148,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +236,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,6 +1013,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2953E61F-C6F6-E143-833E-845ED76563E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57613258-6C80-3348-BE80-36E3720160E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>שם מלא</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>muhamadab</t>
+  </si>
+  <si>
+    <t>lidor</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1056,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57613258-6C80-3348-BE80-36E3720160E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191C37D9-8C08-6C4A-B5DB-11162D311E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191C37D9-8C08-6C4A-B5DB-11162D311E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC230A0-9E7F-5A4D-AD98-95E4796E0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC230A0-9E7F-5A4D-AD98-95E4796E0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7F508-4DFB-B84A-ADC7-A4AA9491C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -223,9 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +256,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,486 +608,489 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="12">
-        <v>8</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
         <v>7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortCondition ref="A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7F508-4DFB-B84A-ADC7-A4AA9491C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9EC05-E966-614C-B45C-E46AB92795CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9EC05-E966-614C-B45C-E46AB92795CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C8315-0F2C-C647-8465-F7786021B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>שם מלא</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>lidor</t>
+  </si>
+  <si>
+    <t>michael</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,6 +1090,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
     <sortCondition ref="A25"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C8315-0F2C-C647-8465-F7786021B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9A947-40FD-0247-A603-9B9384858822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>שם מלא</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>michael</t>
+  </si>
+  <si>
+    <t>נוכחות</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>muhamda</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,7 +255,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,6 +268,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,541 +587,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.83203125" customWidth="1"/>
+    <col min="1" max="3" width="11.5" style="13"/>
+    <col min="4" max="4" width="6.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
+      <c r="D3" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="5">
         <v>7</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="9">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="5">
         <v>7</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="5">
         <v>10</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
         <v>7</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
         <v>10</v>
       </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
         <v>10</v>
       </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
     <sortCondition ref="A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9A947-40FD-0247-A603-9B9384858822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18324FFE-0B44-BD41-A73F-0C6AFCE64F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18324FFE-0B44-BD41-A73F-0C6AFCE64F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F82C2D3-16FA-7C4D-A00D-241E2C322C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>שם מלא</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>muhamda</t>
+  </si>
+  <si>
+    <t>israelm</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1225,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
     <sortCondition ref="A25"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F82C2D3-16FA-7C4D-A00D-241E2C322C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519312EC-1900-1449-A95E-85250ED4E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>שם מלא</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>israelm</t>
+  </si>
+  <si>
+    <t>aviya</t>
   </si>
 </sst>
 </file>
@@ -294,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5">
         <v>7</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1245,6 +1248,29 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>7</v>
+      </c>
+      <c r="G29" s="8">
         <v>0</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519312EC-1900-1449-A95E-85250ED4E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420B63A-DD7C-D44A-B14C-1764EB7C9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420B63A-DD7C-D44A-B14C-1764EB7C9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C343D-2630-564D-8034-D58FAAEC54D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>שם מלא</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>majda</t>
-  </si>
-  <si>
-    <t>moshe</t>
   </si>
   <si>
     <t>meirg</t>
@@ -593,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47D2D1-C530-894D-89EF-E9CDCD152A5D}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -635,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -655,10 +652,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>13</v>
@@ -681,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -704,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
@@ -727,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -750,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
@@ -770,10 +767,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -793,10 +790,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
@@ -819,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -842,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>3</v>
@@ -862,10 +859,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
@@ -888,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
@@ -911,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
@@ -934,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -957,7 +954,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -977,10 +974,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
@@ -1000,12 +997,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5">
@@ -1022,57 +1019,57 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
+      <c r="A19" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -1084,76 +1081,76 @@
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>19</v>
+      <c r="A22" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6</v>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1161,10 +1158,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
@@ -1183,25 +1180,25 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>32</v>
+      <c r="A26" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="D26" s="9">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1210,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>2</v>
@@ -1229,54 +1226,31 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9">
-        <v>9</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <v>7</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G28" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
-    <sortCondition ref="A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+    <sortCondition ref="A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/Mendelson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C343D-2630-564D-8034-D58FAAEC54D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B0BB0A-B169-184B-A069-231F7F36D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{76B1A70E-36C2-9E4B-B9BC-6E6D070680C3}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
